--- a/data/2023/ssg/17,2_DE-89.xlsx
+++ b/data/2023/ssg/17,2_DE-89.xlsx
@@ -91,12 +91,54 @@
     <t>FL-Bibliotheken</t>
   </si>
   <si>
+    <t>2039693-4</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>nl;ad;b</t>
+  </si>
+  <si>
+    <t>zbMATH open</t>
+  </si>
+  <si>
+    <t>FIZ Karlsruhe GmbH</t>
+  </si>
+  <si>
+    <t>[Karlsruhe]</t>
+  </si>
+  <si>
+    <t>eng</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1436-3429</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>17,1;17,2</t>
+  </si>
+  <si>
+    <t>http://www.zbmath.org;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=180</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>2573782-X</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
     <t>pt;ad;b</t>
   </si>
   <si>
@@ -109,15 +151,6 @@
     <t>Zürich</t>
   </si>
   <si>
-    <t>eng</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>17,1;17,2</t>
-  </si>
-  <si>
     <t>http://www.ems-ph.org/journals/journals.php;https://ems.press/journals;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=10436</t>
   </si>
   <si>
@@ -130,9 +163,6 @@
     <t>pt;nl;b</t>
   </si>
   <si>
-    <t>510</t>
-  </si>
-  <si>
     <t>1999 - 2010 (Archiv)</t>
   </si>
   <si>
@@ -149,36 +179,6 @@
   </si>
   <si>
     <t>25;Frei 129;929</t>
-  </si>
-  <si>
-    <t>2039693-4</t>
-  </si>
-  <si>
-    <t>nl;ad;b</t>
-  </si>
-  <si>
-    <t>zbMATH open</t>
-  </si>
-  <si>
-    <t>FIZ Karlsruhe GmbH</t>
-  </si>
-  <si>
-    <t>[Karlsruhe]</t>
-  </si>
-  <si>
-    <t>1436-3429</t>
-  </si>
-  <si>
-    <t>http://www.zbmath.org;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=180</t>
-  </si>
-  <si>
-    <t>LF</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>5</t>
   </si>
 </sst>
 </file>
@@ -619,13 +619,13 @@
         <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
         <v>32</v>
@@ -649,10 +649,10 @@
         <v>32</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="U2" t="s">
         <v>32</v>
@@ -664,30 +664,30 @@
         <v>32</v>
       </c>
       <c r="X2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
@@ -699,13 +699,13 @@
         <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s">
         <v>32</v>
@@ -723,13 +723,13 @@
         <v>32</v>
       </c>
       <c r="R3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="S3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="T3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="U3" t="s">
         <v>32</v>
@@ -741,30 +741,30 @@
         <v>32</v>
       </c>
       <c r="X3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Y3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
         <v>31</v>
@@ -773,34 +773,34 @@
         <v>32</v>
       </c>
       <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" t="s">
         <v>50</v>
-      </c>
-      <c r="J4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R4" t="s">
-        <v>32</v>
       </c>
       <c r="S4" t="s">
         <v>51</v>
